--- a/PlansYear2.xlsx
+++ b/PlansYear2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxwell Dulin\Desktop\CTF\GonzagaCTF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxwell Dulin\Desktop\CTF\SMC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A640D286-CBEE-4F4F-9CD4-6F19ECB14B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC777DD3-1603-41AD-AD26-44CF30944485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="820" activeTab="6" xr2:uid="{FCFD1292-8C82-47E9-ABE8-C58E7364A0F6}"/>
+    <workbookView xWindow="17724" yWindow="5004" windowWidth="7500" windowHeight="6000" tabRatio="820" activeTab="2" xr2:uid="{FCFD1292-8C82-47E9-ABE8-C58E7364A0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Challenge Flags" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
   <si>
     <t>Challenge Name</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Log Analysis</t>
+  </si>
+  <si>
+    <t>Waiting on Corey's…</t>
   </si>
 </sst>
 </file>
@@ -896,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF27B0-3FC8-4B4F-B891-E12E90045284}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1398,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3FDB87-32B4-4558-B40D-F27094BD6748}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1538,7 +1541,7 @@
       <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C9">
@@ -1612,21 +1615,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384ACA9D-86DA-4D4C-A0D1-2EB8EF2C2B4E}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="105" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,16 +1643,13 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1662,11 +1662,11 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1679,11 +1679,11 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1696,14 +1696,14 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1716,11 +1716,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1733,11 +1733,11 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1750,14 +1750,14 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1770,11 +1770,11 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1787,11 +1787,11 @@
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1804,14 +1804,14 @@
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1824,22 +1824,22 @@
       <c r="D13">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
       <c r="B18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1855,15 +1855,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>96</v>
       </c>
       <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1871,29 +1871,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
       <c r="B23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>145</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="1">
         <f>SUM(B18:B24)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E8DA5-013C-4ECA-8E95-1E5C3A0D9071}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/PlansYear2.xlsx
+++ b/PlansYear2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxwell Dulin\Desktop\CTF\SMC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC777DD3-1603-41AD-AD26-44CF30944485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6C1E2-FF20-481D-A184-BFB0B348C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17724" yWindow="5004" windowWidth="7500" windowHeight="6000" tabRatio="820" activeTab="2" xr2:uid="{FCFD1292-8C82-47E9-ABE8-C58E7364A0F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" activeTab="6" xr2:uid="{FCFD1292-8C82-47E9-ABE8-C58E7364A0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Challenge Flags" sheetId="1" r:id="rId1"/>
     <sheet name="Website Chals" sheetId="5" r:id="rId2"/>
     <sheet name="Wargame Info" sheetId="4" r:id="rId3"/>
-    <sheet name="Other Chals" sheetId="6" r:id="rId4"/>
-    <sheet name="Admin Creds" sheetId="2" r:id="rId5"/>
+    <sheet name="Teams" sheetId="10" r:id="rId4"/>
+    <sheet name="Other Chals" sheetId="6" r:id="rId5"/>
     <sheet name="Commands" sheetId="3" r:id="rId6"/>
-    <sheet name="Scoreboard" sheetId="8" r:id="rId7"/>
-    <sheet name="DiffToPoints" sheetId="9" r:id="rId8"/>
+    <sheet name="DiffToPoints" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="201">
   <si>
     <t>Challenge Name</t>
   </si>
@@ -57,12 +56,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ubuntu</t>
-  </si>
-  <si>
-    <t>drewwetbluecanyon</t>
-  </si>
-  <si>
     <t>shuffleshuffleshuffle</t>
   </si>
   <si>
@@ -348,27 +341,12 @@
     <t>Challenge Type</t>
   </si>
   <si>
-    <t>sudo docker-compose up</t>
-  </si>
-  <si>
-    <t>sudo socat TCP-LISTEN:80,fork TCP:127.0.0.1:8000 &amp;</t>
-  </si>
-  <si>
     <t>sudo docker run -p 80:8000 -it ctfd/ctfd</t>
   </si>
   <si>
     <t>Run the scoreboard on port 80</t>
   </si>
   <si>
-    <t>mdulin2</t>
-  </si>
-  <si>
-    <t>dulinmax@outlook.com</t>
-  </si>
-  <si>
-    <t>hackmesomeday</t>
-  </si>
-  <si>
     <t xml:space="preserve">Need to set this up in a tmux session so that people can call it. </t>
   </si>
   <si>
@@ -481,6 +459,189 @@
   </si>
   <si>
     <t>Waiting on Corey's…</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Proud Proficient Pirates</t>
+  </si>
+  <si>
+    <t>Whitworth</t>
+  </si>
+  <si>
+    <t>/dev/null</t>
+  </si>
+  <si>
+    <t>Boomers</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Team GU</t>
+  </si>
+  <si>
+    <t>Zippity Zappity Zags</t>
+  </si>
+  <si>
+    <t>Bracegirdies and Proudfoots</t>
+  </si>
+  <si>
+    <t>SFCC</t>
+  </si>
+  <si>
+    <t>Extremely Expert Eaggies</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>ARR Be Pirates</t>
+  </si>
+  <si>
+    <t>Evasively Excellent Eags</t>
+  </si>
+  <si>
+    <t>Rogers HS</t>
+  </si>
+  <si>
+    <t>Potential Spam</t>
+  </si>
+  <si>
+    <t>LCSU</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Swallow</t>
+  </si>
+  <si>
+    <t>Canary</t>
+  </si>
+  <si>
+    <t>Exceding Flux Capcity</t>
+  </si>
+  <si>
+    <t>Samsquanches with Sammiches</t>
+  </si>
+  <si>
+    <t>Memory Mongers</t>
+  </si>
+  <si>
+    <t>No team name, but a team </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>HS'ers</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>guess magic post engineer</t>
+  </si>
+  <si>
+    <t>eleven seed require word</t>
+  </si>
+  <si>
+    <t>thumb before stick jar</t>
+  </si>
+  <si>
+    <t>experiment six himself truth</t>
+  </si>
+  <si>
+    <t>had fact whenever observe</t>
+  </si>
+  <si>
+    <t>hall sound fed bee</t>
+  </si>
+  <si>
+    <t>Parley Jude's Law</t>
+  </si>
+  <si>
+    <t>clothing depth black sail</t>
+  </si>
+  <si>
+    <t>region examine running practice</t>
+  </si>
+  <si>
+    <t>doctor sang seldom arrangement</t>
+  </si>
+  <si>
+    <t>job price article plan</t>
+  </si>
+  <si>
+    <t>airplane pride pour broad</t>
+  </si>
+  <si>
+    <t>whom fewer day paint</t>
+  </si>
+  <si>
+    <t>ran consider mouse largest</t>
+  </si>
+  <si>
+    <t>pass perfect several carry</t>
+  </si>
+  <si>
+    <t>can pride lying spend</t>
+  </si>
+  <si>
+    <t>1000, 1001</t>
+  </si>
+  <si>
+    <t>1010, 1011</t>
+  </si>
+  <si>
+    <t>2000, 2001</t>
+  </si>
+  <si>
+    <t>2010, 2011</t>
+  </si>
+  <si>
+    <t>3001, 3002</t>
+  </si>
+  <si>
+    <t>3010, 3011</t>
+  </si>
+  <si>
+    <t>4000, 4001</t>
+  </si>
+  <si>
+    <t>4010, 4011</t>
+  </si>
+  <si>
+    <t>5000, 5001</t>
+  </si>
+  <si>
+    <t>5010, 5011</t>
+  </si>
+  <si>
+    <t>6000, 6001</t>
+  </si>
+  <si>
+    <t>6010, 6011</t>
+  </si>
+  <si>
+    <t>7000, 7001</t>
+  </si>
+  <si>
+    <t>7010, 7011</t>
+  </si>
+  <si>
+    <t>8000, 8001</t>
+  </si>
+  <si>
+    <t>Ports For Challenge 13</t>
   </si>
 </sst>
 </file>
@@ -499,14 +660,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -536,6 +689,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -545,7 +705,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -553,15 +713,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -571,20 +744,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF27B0-3FC8-4B4F-B891-E12E90045284}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -917,27 +1103,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>100</v>
+      <c r="G1" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -945,9 +1131,9 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -955,16 +1141,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -972,16 +1158,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -989,16 +1175,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1006,16 +1192,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1023,16 +1209,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1040,16 +1226,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1">
         <f>SUM(G3:G8)</f>
@@ -1058,10 +1244,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1069,24 +1255,24 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1094,10 +1280,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1105,9 +1291,9 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2">
         <v>12348219</v>
       </c>
       <c r="C15">
@@ -1116,10 +1302,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1127,10 +1313,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1138,10 +1324,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1149,24 +1335,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -1174,10 +1360,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -1185,10 +1371,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1196,10 +1382,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -1207,10 +1393,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -1218,9 +1404,9 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="3">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2">
         <v>32767</v>
       </c>
       <c r="C26">
@@ -1229,10 +1415,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C27">
         <v>24</v>
@@ -1240,10 +1426,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -1251,10 +1437,10 @@
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="C29">
         <v>26</v>
@@ -1262,10 +1448,10 @@
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>128</v>
+        <v>81</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -1273,10 +1459,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -1284,10 +1470,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C32">
         <v>36</v>
@@ -1295,10 +1481,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C34">
         <v>30</v>
@@ -1306,9 +1492,9 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="3">
+        <v>125</v>
+      </c>
+      <c r="B35" s="2">
         <v>1860</v>
       </c>
       <c r="C35">
@@ -1317,10 +1503,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -1328,10 +1514,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C37">
         <v>33</v>
@@ -1339,10 +1525,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C38">
         <v>34</v>
@@ -1350,10 +1536,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C39">
         <v>35</v>
@@ -1361,9 +1547,9 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="3">
+        <v>125</v>
+      </c>
+      <c r="B40" s="2">
         <v>60</v>
       </c>
       <c r="C40">
@@ -1371,25 +1557,25 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3FDB87-32B4-4558-B40D-F27094BD6748}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1420,22 +1606,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>9999</v>
@@ -1443,44 +1629,44 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>8081</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>5000</v>
@@ -1488,125 +1674,125 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>8181</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>8181</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="3"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384ACA9D-86DA-4D4C-A0D1-2EB8EF2C2B4E}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1640,13 +1826,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1654,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1668,13 +1854,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1685,13 +1871,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1700,18 +1886,18 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1722,13 +1908,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1739,13 +1925,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1754,18 +1940,18 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1776,13 +1962,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1793,13 +1979,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1808,18 +1994,18 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1828,12 +2014,12 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1841,7 +2027,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1849,7 +2035,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1857,7 +2043,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -1865,7 +2051,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1873,7 +2059,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1881,18 +2067,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1">
         <f>SUM(B18:B24)</f>
@@ -1906,17 +2092,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D453A9E-AB6D-4D41-9D3C-7A5448DFE218}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7CB633-CB54-4589-A0EF-F765114BB889}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
     <col min="4" max="4" width="73.88671875" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
@@ -1926,341 +2461,315 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="3">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="3">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="3">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="3">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="3">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="3">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="3">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>88</v>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="3">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>88</v>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="3">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>88</v>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="3">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="3">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>88</v>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="3">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>88</v>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="3">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>88</v>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D27F9-3E7A-4F11-8ECD-FA07A2174873}">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2280,42 +2789,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2325,62 +2834,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E8DA5-013C-4ECA-8E95-1E5C3A0D9071}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{C8C42A80-0F13-47F7-BEF2-53CA6985282F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C003FAC-9DEE-4A49-A6DA-55DA9926C15E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4">
